--- a/docs/画面項目定義書/user_detail.xlsx
+++ b/docs/画面項目定義書/user_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C20BD-6050-465D-8B9E-4AEDCD1358B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD21F9-2369-40DE-974D-8D457BDB4C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2220" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>日本工学院</t>
   </si>
@@ -67,33 +67,6 @@
     <t>最大ストレージ数</t>
   </si>
   <si>
-    <t>パスワードリセットボタン</t>
-  </si>
-  <si>
-    <t>編集ボタン</t>
-  </si>
-  <si>
-    <t>保存ボタン</t>
-  </si>
-  <si>
-    <t>キャンセルボタン</t>
-  </si>
-  <si>
-    <t>表示のみ</t>
-  </si>
-  <si>
-    <t>テキストボックス（メール形式）</t>
-  </si>
-  <si>
-    <t>テキストボックス（数値）</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>メール形式</t>
   </si>
   <si>
@@ -101,33 +74,6 @@
   </si>
   <si>
     <t>10以上</t>
-  </si>
-  <si>
-    <t>表示専用。編集不可。</t>
-  </si>
-  <si>
-    <t>メールアドレスを編集可能。保存ボタンで反映。</t>
-  </si>
-  <si>
-    <t>仮想マシンの最大CPU数（vCPU）を設定。保存ボタンで反映。</t>
-  </si>
-  <si>
-    <t>仮想マシンの最大メモリ容量（GB）を設定。保存ボタンで反映。</t>
-  </si>
-  <si>
-    <t>仮想マシンの最大ストレージ容量（GB）を設定。保存ボタンで反映。</t>
-  </si>
-  <si>
-    <t>押下するとパスワードリセットメールを送信（ダミー処理）</t>
-  </si>
-  <si>
-    <t>押下で編集モードへ遷移</t>
-  </si>
-  <si>
-    <t>押下で入力内容を保存し、表示モードへ遷移</t>
-  </si>
-  <si>
-    <t>押下で変更を破棄し、表示モードへ遷移</t>
   </si>
   <si>
     <t>user_detail_edit</t>
@@ -141,6 +87,77 @@
   </si>
   <si>
     <t>ユーザーエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティよりアカウント名を取得して表示する</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティよりメールアドレスを取得して表示する</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティより最大CPU数を取得して表示する</t>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティより最大メモリ数を取得して表示する</t>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティより最大ストレージ数を取得して表示する</t>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1008,21 +1025,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1050,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1042,7 +1059,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1051,7 +1068,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1060,7 +1077,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1073,9 +1090,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1084,7 +1101,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1093,7 +1110,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="23" customHeight="1">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1124,38 +1141,36 @@
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" customHeight="1">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="31"/>
       <c r="E10" s="25" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -1165,20 +1180,18 @@
       <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -1188,20 +1201,18 @@
       <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
@@ -1211,106 +1222,82 @@
       <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>17</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="28">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="B15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="13">
       <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1321,7 +1308,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1332,7 +1319,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1343,7 +1330,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1354,7 +1341,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1365,7 +1352,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1376,7 +1363,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1387,7 +1374,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1396,7 +1383,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1405,7 +1392,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1414,7 +1401,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
